--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna5-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Ephb6</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H2">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J2">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.239262</v>
+        <v>0.168144</v>
       </c>
       <c r="N2">
-        <v>0.717786</v>
+        <v>0.504432</v>
       </c>
       <c r="O2">
-        <v>0.08715472402266847</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P2">
-        <v>0.08715472402266845</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q2">
-        <v>0.022379211662</v>
+        <v>0.029063802496</v>
       </c>
       <c r="R2">
-        <v>0.201412904958</v>
+        <v>0.261574222464</v>
       </c>
       <c r="S2">
-        <v>0.004108127657136395</v>
+        <v>0.004577587507256215</v>
       </c>
       <c r="T2">
-        <v>0.004108127657136394</v>
+        <v>0.004577587507256215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H3">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J3">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>3.839785</v>
       </c>
       <c r="O3">
-        <v>0.4662328353874024</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P3">
-        <v>0.4662328353874023</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q3">
-        <v>0.1197172433727778</v>
+        <v>0.2212364657022222</v>
       </c>
       <c r="R3">
-        <v>1.077455190355</v>
+        <v>1.99112819132</v>
       </c>
       <c r="S3">
-        <v>0.02197636476046826</v>
+        <v>0.03484503728262642</v>
       </c>
       <c r="T3">
-        <v>0.02197636476046826</v>
+        <v>0.03484503728262641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09353433333333334</v>
+        <v>0.1728506666666667</v>
       </c>
       <c r="H4">
-        <v>0.280603</v>
+        <v>0.518552</v>
       </c>
       <c r="I4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="J4">
-        <v>0.04713602966682441</v>
+        <v>0.0840503369699626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.217387</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N4">
-        <v>3.652161</v>
+        <v>4.917797</v>
       </c>
       <c r="O4">
-        <v>0.4434512292540573</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P4">
-        <v>0.4434512292540573</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q4">
-        <v>0.1138674814536667</v>
+        <v>0.2833481633271112</v>
       </c>
       <c r="R4">
-        <v>1.024807333083</v>
+        <v>2.550133469944</v>
       </c>
       <c r="S4">
-        <v>0.020902530297909</v>
+        <v>0.04462771218007997</v>
       </c>
       <c r="T4">
-        <v>0.020902530297909</v>
+        <v>0.04462771218007996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +711,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09353433333333334</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H5">
-        <v>0.280603</v>
+        <v>4.103153</v>
       </c>
       <c r="I5">
-        <v>0.04713602966682441</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J5">
-        <v>0.04713602966682441</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.008678333333333335</v>
+        <v>0.168144</v>
       </c>
       <c r="N5">
-        <v>0.026035</v>
+        <v>0.504432</v>
       </c>
       <c r="O5">
-        <v>0.003161211335871936</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P5">
-        <v>0.003161211335871936</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q5">
-        <v>0.000811722122777778</v>
+        <v>0.229973519344</v>
       </c>
       <c r="R5">
-        <v>0.007305499105000002</v>
+        <v>2.069761674096</v>
       </c>
       <c r="S5">
-        <v>0.0001490069513107612</v>
+        <v>0.03622113483924633</v>
       </c>
       <c r="T5">
-        <v>0.0001490069513107612</v>
+        <v>0.03622113483924633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +788,40 @@
         <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J6">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.239262</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N6">
-        <v>0.717786</v>
+        <v>3.839785</v>
       </c>
       <c r="O6">
-        <v>0.08715472402266847</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P6">
-        <v>0.08715472402266845</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q6">
-        <v>0.327242864362</v>
+        <v>1.750580593567222</v>
       </c>
       <c r="R6">
-        <v>2.945185779258</v>
+        <v>15.755225342105</v>
       </c>
       <c r="S6">
-        <v>0.0600716183389421</v>
+        <v>0.2757187693062999</v>
       </c>
       <c r="T6">
-        <v>0.06007161833894208</v>
+        <v>0.2757187693062999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="J7">
-        <v>0.6892525793933763</v>
+        <v>0.6650661694281633</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +862,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.279928333333333</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N7">
-        <v>3.839785</v>
+        <v>4.917797</v>
       </c>
       <c r="O7">
-        <v>0.4662328353874024</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P7">
-        <v>0.4662328353874023</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q7">
-        <v>1.750580593567222</v>
+        <v>2.242052612660111</v>
       </c>
       <c r="R7">
-        <v>15.755225342105</v>
+        <v>20.178473513941</v>
       </c>
       <c r="S7">
-        <v>0.3213521843886545</v>
+        <v>0.3531262652826171</v>
       </c>
       <c r="T7">
-        <v>0.3213521843886545</v>
+        <v>0.353126265282617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +906,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.367717666666667</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H8">
-        <v>4.103153</v>
+        <v>1.547836</v>
       </c>
       <c r="I8">
-        <v>0.6892525793933763</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J8">
-        <v>0.6892525793933763</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.217387</v>
+        <v>0.168144</v>
       </c>
       <c r="N8">
-        <v>3.652161</v>
+        <v>0.504432</v>
       </c>
       <c r="O8">
-        <v>0.4434512292540573</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P8">
-        <v>0.4434512292540573</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q8">
-        <v>1.665041707070333</v>
+        <v>0.08675311212799999</v>
       </c>
       <c r="R8">
-        <v>14.985375363633</v>
+        <v>0.780778009152</v>
       </c>
       <c r="S8">
-        <v>0.3056499035985225</v>
+        <v>0.01366373042024991</v>
       </c>
       <c r="T8">
-        <v>0.3056499035985225</v>
+        <v>0.01366373042024991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.367717666666667</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H9">
-        <v>4.103153</v>
+        <v>1.547836</v>
       </c>
       <c r="I9">
-        <v>0.6892525793933763</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J9">
-        <v>0.6892525793933763</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008678333333333335</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N9">
-        <v>0.026035</v>
+        <v>3.839785</v>
       </c>
       <c r="O9">
-        <v>0.003161211335871936</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P9">
-        <v>0.003161211335871936</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q9">
-        <v>0.01186950981722222</v>
+        <v>0.6603730505844445</v>
       </c>
       <c r="R9">
-        <v>0.106825588355</v>
+        <v>5.94335745526</v>
       </c>
       <c r="S9">
-        <v>0.002178873067257313</v>
+        <v>0.1040096328379629</v>
       </c>
       <c r="T9">
-        <v>0.002178873067257313</v>
+        <v>0.1040096328379629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,232 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.523097</v>
+        <v>0.5159453333333334</v>
       </c>
       <c r="H10">
-        <v>1.569291</v>
+        <v>1.547836</v>
       </c>
       <c r="I10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="J10">
-        <v>0.2636113909397994</v>
+        <v>0.2508834936018741</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.239262</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N10">
-        <v>0.717786</v>
+        <v>4.917797</v>
       </c>
       <c r="O10">
-        <v>0.08715472402266847</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P10">
-        <v>0.08715472402266845</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q10">
-        <v>0.125157234414</v>
+        <v>0.8457714708102223</v>
       </c>
       <c r="R10">
-        <v>1.126415109726</v>
+        <v>7.611943237292</v>
       </c>
       <c r="S10">
-        <v>0.02297497802658998</v>
+        <v>0.1332101303436613</v>
       </c>
       <c r="T10">
-        <v>0.02297497802658998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.523097</v>
-      </c>
-      <c r="H11">
-        <v>1.569291</v>
-      </c>
-      <c r="I11">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="J11">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.279928333333333</v>
-      </c>
-      <c r="N11">
-        <v>3.839785</v>
-      </c>
-      <c r="O11">
-        <v>0.4662328353874024</v>
-      </c>
-      <c r="P11">
-        <v>0.4662328353874023</v>
-      </c>
-      <c r="Q11">
-        <v>0.6695266713816667</v>
-      </c>
-      <c r="R11">
-        <v>6.025740042435</v>
-      </c>
-      <c r="S11">
-        <v>0.1229042862382797</v>
-      </c>
-      <c r="T11">
-        <v>0.1229042862382797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.523097</v>
-      </c>
-      <c r="H12">
-        <v>1.569291</v>
-      </c>
-      <c r="I12">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="J12">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.217387</v>
-      </c>
-      <c r="N12">
-        <v>3.652161</v>
-      </c>
-      <c r="O12">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="P12">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="Q12">
-        <v>0.636811487539</v>
-      </c>
-      <c r="R12">
-        <v>5.731303387850999</v>
-      </c>
-      <c r="S12">
-        <v>0.1168987953576259</v>
-      </c>
-      <c r="T12">
-        <v>0.1168987953576259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.523097</v>
-      </c>
-      <c r="H13">
-        <v>1.569291</v>
-      </c>
-      <c r="I13">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="J13">
-        <v>0.2636113909397994</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.008678333333333335</v>
-      </c>
-      <c r="N13">
-        <v>0.026035</v>
-      </c>
-      <c r="O13">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="P13">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="Q13">
-        <v>0.004539610131666667</v>
-      </c>
-      <c r="R13">
-        <v>0.040856491185</v>
-      </c>
-      <c r="S13">
-        <v>0.0008333313173038625</v>
-      </c>
-      <c r="T13">
-        <v>0.0008333313173038624</v>
+        <v>0.1332101303436613</v>
       </c>
     </row>
   </sheetData>
